--- a/Mobility_data/Other_input/hvm_r_matching.xlsx
+++ b/Mobility_data/Other_input/hvm_r_matching.xlsx
@@ -499,7 +499,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
